--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Pros1-Mertk.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Pros1-Mertk.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>19.799956</v>
+        <v>33.528132</v>
       </c>
       <c r="H2">
-        <v>59.399868</v>
+        <v>100.584396</v>
       </c>
       <c r="I2">
-        <v>0.1536849323813902</v>
+        <v>0.2545541120163005</v>
       </c>
       <c r="J2">
-        <v>0.1536849323813902</v>
+        <v>0.2545541120163005</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.326087</v>
+        <v>13.09190433333333</v>
       </c>
       <c r="N2">
-        <v>15.978261</v>
+        <v>39.275713</v>
       </c>
       <c r="O2">
-        <v>0.05862145394746399</v>
+        <v>0.1851418593633568</v>
       </c>
       <c r="P2">
-        <v>0.05862145394746399</v>
+        <v>0.1851418593633568</v>
       </c>
       <c r="Q2">
-        <v>105.456288252172</v>
+        <v>438.947096619372</v>
       </c>
       <c r="R2">
-        <v>949.1065942695481</v>
+        <v>3950.523869574347</v>
       </c>
       <c r="S2">
-        <v>0.009009234186014781</v>
+        <v>0.04712862160728608</v>
       </c>
       <c r="T2">
-        <v>0.00900923418601478</v>
+        <v>0.04712862160728608</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>19.799956</v>
+        <v>33.528132</v>
       </c>
       <c r="H3">
-        <v>59.399868</v>
+        <v>100.584396</v>
       </c>
       <c r="I3">
-        <v>0.1536849323813902</v>
+        <v>0.2545541120163005</v>
       </c>
       <c r="J3">
-        <v>0.1536849323813902</v>
+        <v>0.2545541120163005</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>1.996509</v>
       </c>
       <c r="O3">
-        <v>0.007324843448182339</v>
+        <v>0.009411347630931009</v>
       </c>
       <c r="P3">
-        <v>0.007324843448182338</v>
+        <v>0.009411347630931006</v>
       </c>
       <c r="Q3">
-        <v>13.176930117868</v>
+        <v>22.313072430396</v>
       </c>
       <c r="R3">
-        <v>118.592371060812</v>
+        <v>200.817651873564</v>
       </c>
       <c r="S3">
-        <v>0.001125718070038172</v>
+        <v>0.002395697239068356</v>
       </c>
       <c r="T3">
-        <v>0.001125718070038171</v>
+        <v>0.002395697239068356</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>19.799956</v>
+        <v>33.528132</v>
       </c>
       <c r="H4">
-        <v>59.399868</v>
+        <v>100.584396</v>
       </c>
       <c r="I4">
-        <v>0.1536849323813902</v>
+        <v>0.2545541120163005</v>
       </c>
       <c r="J4">
-        <v>0.1536849323813902</v>
+        <v>0.2545541120163005</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>34.56390266666667</v>
+        <v>14.65291633333333</v>
       </c>
       <c r="N4">
-        <v>103.691708</v>
+        <v>43.958749</v>
       </c>
       <c r="O4">
-        <v>0.3804267989649113</v>
+        <v>0.2072172318080413</v>
       </c>
       <c r="P4">
-        <v>0.3804267989649113</v>
+        <v>0.2072172318080413</v>
       </c>
       <c r="Q4">
-        <v>684.3637519882827</v>
+        <v>491.2849130089559</v>
       </c>
       <c r="R4">
-        <v>6159.273767894544</v>
+        <v>4421.564217080604</v>
       </c>
       <c r="S4">
-        <v>0.05846586687499112</v>
+        <v>0.05274799843737185</v>
       </c>
       <c r="T4">
-        <v>0.05846586687499111</v>
+        <v>0.05274799843737186</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>19.799956</v>
+        <v>33.528132</v>
       </c>
       <c r="H5">
-        <v>59.399868</v>
+        <v>100.584396</v>
       </c>
       <c r="I5">
-        <v>0.1536849323813902</v>
+        <v>0.2545541120163005</v>
       </c>
       <c r="J5">
-        <v>0.1536849323813902</v>
+        <v>0.2545541120163005</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.115986666666667</v>
+        <v>1.733624333333333</v>
       </c>
       <c r="N5">
-        <v>9.34796</v>
+        <v>5.200873</v>
       </c>
       <c r="O5">
-        <v>0.03429603550991785</v>
+        <v>0.02451640527907615</v>
       </c>
       <c r="P5">
-        <v>0.03429603550991785</v>
+        <v>0.02451640527907614</v>
       </c>
       <c r="Q5">
-        <v>61.69639889658666</v>
+        <v>58.12518548641199</v>
       </c>
       <c r="R5">
-        <v>555.26759006928</v>
+        <v>523.1266693777079</v>
       </c>
       <c r="S5">
-        <v>0.005270783898291481</v>
+        <v>0.00624075177564697</v>
       </c>
       <c r="T5">
-        <v>0.005270783898291481</v>
+        <v>0.00624075177564697</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>19.799956</v>
+        <v>33.528132</v>
       </c>
       <c r="H6">
-        <v>59.399868</v>
+        <v>100.584396</v>
       </c>
       <c r="I6">
-        <v>0.1536849323813902</v>
+        <v>0.2545541120163005</v>
       </c>
       <c r="J6">
-        <v>0.1536849323813902</v>
+        <v>0.2545541120163005</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.275936666666666</v>
+        <v>5.449339666666667</v>
       </c>
       <c r="N6">
-        <v>15.82781</v>
+        <v>16.348019</v>
       </c>
       <c r="O6">
-        <v>0.05806947545819973</v>
+        <v>0.07706295833680946</v>
       </c>
       <c r="P6">
-        <v>0.05806947545819973</v>
+        <v>0.07706295833680944</v>
       </c>
       <c r="Q6">
-        <v>104.4633138587866</v>
+        <v>182.706179656836</v>
       </c>
       <c r="R6">
-        <v>940.1698247290799</v>
+        <v>1644.355616911524</v>
       </c>
       <c r="S6">
-        <v>0.008924403409216223</v>
+        <v>0.01961669292877569</v>
       </c>
       <c r="T6">
-        <v>0.008924403409216221</v>
+        <v>0.01961669292877569</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>19.799956</v>
+        <v>33.528132</v>
       </c>
       <c r="H7">
-        <v>59.399868</v>
+        <v>100.584396</v>
       </c>
       <c r="I7">
-        <v>0.1536849323813902</v>
+        <v>0.2545541120163005</v>
       </c>
       <c r="J7">
-        <v>0.1536849323813902</v>
+        <v>0.2545541120163005</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>41.90817766666667</v>
+        <v>35.11953966666666</v>
       </c>
       <c r="N7">
-        <v>125.724533</v>
+        <v>105.358619</v>
       </c>
       <c r="O7">
-        <v>0.4612613926713248</v>
+        <v>0.4966501975817853</v>
       </c>
       <c r="P7">
-        <v>0.4612613926713249</v>
+        <v>0.4966501975817852</v>
       </c>
       <c r="Q7">
-        <v>829.7800738401826</v>
+        <v>1177.492561723236</v>
       </c>
       <c r="R7">
-        <v>7468.020664561644</v>
+        <v>10597.43305550912</v>
       </c>
       <c r="S7">
-        <v>0.07088892594283842</v>
+        <v>0.1264243500281515</v>
       </c>
       <c r="T7">
-        <v>0.07088892594283842</v>
+        <v>0.1264243500281515</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>189.568985</v>
       </c>
       <c r="I8">
-        <v>0.4904707303614508</v>
+        <v>0.4797519949566172</v>
       </c>
       <c r="J8">
-        <v>0.4904707303614508</v>
+        <v>0.4797519949566172</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.326087</v>
+        <v>13.09190433333333</v>
       </c>
       <c r="N8">
-        <v>15.978261</v>
+        <v>39.275713</v>
       </c>
       <c r="O8">
-        <v>0.05862145394746399</v>
+        <v>0.1851418593633568</v>
       </c>
       <c r="P8">
-        <v>0.05862145394746399</v>
+        <v>0.1851418593633568</v>
       </c>
       <c r="Q8">
-        <v>336.5536355372317</v>
+        <v>827.2730053957005</v>
       </c>
       <c r="R8">
-        <v>3028.982719835085</v>
+        <v>7445.457048561304</v>
       </c>
       <c r="S8">
-        <v>0.02875210733246282</v>
+        <v>0.08882217637954788</v>
       </c>
       <c r="T8">
-        <v>0.02875210733246281</v>
+        <v>0.08882217637954788</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>189.568985</v>
       </c>
       <c r="I9">
-        <v>0.4904707303614508</v>
+        <v>0.4797519949566172</v>
       </c>
       <c r="J9">
-        <v>0.4904707303614508</v>
+        <v>0.4797519949566172</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>1.996509</v>
       </c>
       <c r="O9">
-        <v>0.007324843448182339</v>
+        <v>0.009411347630931009</v>
       </c>
       <c r="P9">
-        <v>0.007324843448182338</v>
+        <v>0.009411347630931006</v>
       </c>
       <c r="Q9">
         <v>42.05290940815167</v>
@@ -1013,10 +1013,10 @@
         <v>378.476184673365</v>
       </c>
       <c r="S9">
-        <v>0.003592621315813279</v>
+        <v>0.004515112801169385</v>
       </c>
       <c r="T9">
-        <v>0.003592621315813279</v>
+        <v>0.004515112801169383</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>189.568985</v>
       </c>
       <c r="I10">
-        <v>0.4904707303614508</v>
+        <v>0.4797519949566172</v>
       </c>
       <c r="J10">
-        <v>0.4904707303614508</v>
+        <v>0.4797519949566172</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>34.56390266666667</v>
+        <v>14.65291633333333</v>
       </c>
       <c r="N10">
-        <v>103.691708</v>
+        <v>43.958749</v>
       </c>
       <c r="O10">
-        <v>0.3804267989649113</v>
+        <v>0.2072172318080413</v>
       </c>
       <c r="P10">
-        <v>0.3804267989649113</v>
+        <v>0.2072172318080413</v>
       </c>
       <c r="Q10">
-        <v>2184.081315386265</v>
+        <v>925.9128255333071</v>
       </c>
       <c r="R10">
-        <v>19656.73183847638</v>
+        <v>8333.215429799764</v>
       </c>
       <c r="S10">
-        <v>0.1865882099373889</v>
+        <v>0.09941288034929562</v>
       </c>
       <c r="T10">
-        <v>0.1865882099373889</v>
+        <v>0.09941288034929562</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>189.568985</v>
       </c>
       <c r="I11">
-        <v>0.4904707303614508</v>
+        <v>0.4797519949566172</v>
       </c>
       <c r="J11">
-        <v>0.4904707303614508</v>
+        <v>0.4797519949566172</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.115986666666667</v>
+        <v>1.733624333333333</v>
       </c>
       <c r="N11">
-        <v>9.34796</v>
+        <v>5.200873</v>
       </c>
       <c r="O11">
-        <v>0.03429603550991785</v>
+        <v>0.02451640527907615</v>
       </c>
       <c r="P11">
-        <v>0.03429603550991785</v>
+        <v>0.02451640527907614</v>
       </c>
       <c r="Q11">
-        <v>196.8981432245111</v>
+        <v>109.5471350804339</v>
       </c>
       <c r="R11">
-        <v>1772.0832890206</v>
+        <v>985.9242157239049</v>
       </c>
       <c r="S11">
-        <v>0.01682120158505166</v>
+        <v>0.01176179434180172</v>
       </c>
       <c r="T11">
-        <v>0.01682120158505166</v>
+        <v>0.01176179434180172</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>189.568985</v>
       </c>
       <c r="I12">
-        <v>0.4904707303614508</v>
+        <v>0.4797519949566172</v>
       </c>
       <c r="J12">
-        <v>0.4904707303614508</v>
+        <v>0.4797519949566172</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.275936666666666</v>
+        <v>5.449339666666667</v>
       </c>
       <c r="N12">
-        <v>15.82781</v>
+        <v>16.348019</v>
       </c>
       <c r="O12">
-        <v>0.05806947545819973</v>
+        <v>0.07706295833680946</v>
       </c>
       <c r="P12">
-        <v>0.05806947545819973</v>
+        <v>0.07706295833680944</v>
       </c>
       <c r="Q12">
-        <v>333.3846529414278</v>
+        <v>344.3419298434128</v>
       </c>
       <c r="R12">
-        <v>3000.46187647285</v>
+        <v>3099.077368590715</v>
       </c>
       <c r="S12">
-        <v>0.02848137803968957</v>
+        <v>0.03697110799934301</v>
       </c>
       <c r="T12">
-        <v>0.02848137803968956</v>
+        <v>0.03697110799934301</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>189.568985</v>
       </c>
       <c r="I13">
-        <v>0.4904707303614508</v>
+        <v>0.4797519949566172</v>
       </c>
       <c r="J13">
-        <v>0.4904707303614508</v>
+        <v>0.4797519949566172</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>41.90817766666667</v>
+        <v>35.11953966666666</v>
       </c>
       <c r="N13">
-        <v>125.724533</v>
+        <v>105.358619</v>
       </c>
       <c r="O13">
-        <v>0.4612613926713248</v>
+        <v>0.4966501975817853</v>
       </c>
       <c r="P13">
-        <v>0.4612613926713249</v>
+        <v>0.4966501975817852</v>
       </c>
       <c r="Q13">
-        <v>2648.163567823223</v>
+        <v>2219.191829425746</v>
       </c>
       <c r="R13">
-        <v>23833.47211040901</v>
+        <v>19972.72646483171</v>
       </c>
       <c r="S13">
-        <v>0.2262352121510446</v>
+        <v>0.2382689230854596</v>
       </c>
       <c r="T13">
-        <v>0.2262352121510446</v>
+        <v>0.2382689230854596</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>13.101537</v>
+        <v>13.967026</v>
       </c>
       <c r="H14">
-        <v>39.304611</v>
+        <v>41.901078</v>
       </c>
       <c r="I14">
-        <v>0.1016925910308731</v>
+        <v>0.1060412164011577</v>
       </c>
       <c r="J14">
-        <v>0.1016925910308731</v>
+        <v>0.1060412164011577</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.326087</v>
+        <v>13.09190433333333</v>
       </c>
       <c r="N14">
-        <v>15.978261</v>
+        <v>39.275713</v>
       </c>
       <c r="O14">
-        <v>0.05862145394746399</v>
+        <v>0.1851418593633568</v>
       </c>
       <c r="P14">
-        <v>0.05862145394746399</v>
+        <v>0.1851418593633568</v>
       </c>
       <c r="Q14">
-        <v>69.779925895719</v>
+        <v>182.8549682131793</v>
       </c>
       <c r="R14">
-        <v>628.0193330614711</v>
+        <v>1645.694713918614</v>
       </c>
       <c r="S14">
-        <v>0.005961367541914616</v>
+        <v>0.01963266797366243</v>
       </c>
       <c r="T14">
-        <v>0.005961367541914615</v>
+        <v>0.01963266797366243</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>13.101537</v>
+        <v>13.967026</v>
       </c>
       <c r="H15">
-        <v>39.304611</v>
+        <v>41.901078</v>
       </c>
       <c r="I15">
-        <v>0.1016925910308731</v>
+        <v>0.1060412164011577</v>
       </c>
       <c r="J15">
-        <v>0.1016925910308731</v>
+        <v>0.1060412164011577</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>1.996509</v>
       </c>
       <c r="O15">
-        <v>0.007324843448182339</v>
+        <v>0.009411347630931009</v>
       </c>
       <c r="P15">
-        <v>0.007324843448182338</v>
+        <v>0.009411347630931006</v>
       </c>
       <c r="Q15">
-        <v>8.719112178111001</v>
+        <v>9.295097704078</v>
       </c>
       <c r="R15">
-        <v>78.47200960299901</v>
+        <v>83.655879336702</v>
       </c>
       <c r="S15">
-        <v>0.0007448823091411768</v>
+        <v>0.0009979907507580783</v>
       </c>
       <c r="T15">
-        <v>0.0007448823091411766</v>
+        <v>0.0009979907507580779</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>13.101537</v>
+        <v>13.967026</v>
       </c>
       <c r="H16">
-        <v>39.304611</v>
+        <v>41.901078</v>
       </c>
       <c r="I16">
-        <v>0.1016925910308731</v>
+        <v>0.1060412164011577</v>
       </c>
       <c r="J16">
-        <v>0.1016925910308731</v>
+        <v>0.1060412164011577</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>34.56390266666667</v>
+        <v>14.65291633333333</v>
       </c>
       <c r="N16">
-        <v>103.691708</v>
+        <v>43.958749</v>
       </c>
       <c r="O16">
-        <v>0.3804267989649113</v>
+        <v>0.2072172318080413</v>
       </c>
       <c r="P16">
-        <v>0.3804267989649113</v>
+        <v>0.2072172318080413</v>
       </c>
       <c r="Q16">
-        <v>452.8402496517321</v>
+        <v>204.6576634034913</v>
       </c>
       <c r="R16">
-        <v>4075.562246865588</v>
+        <v>1841.918970631422</v>
       </c>
       <c r="S16">
-        <v>0.0386865868843229</v>
+        <v>0.02197356732020538</v>
       </c>
       <c r="T16">
-        <v>0.0386865868843229</v>
+        <v>0.02197356732020538</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>13.101537</v>
+        <v>13.967026</v>
       </c>
       <c r="H17">
-        <v>39.304611</v>
+        <v>41.901078</v>
       </c>
       <c r="I17">
-        <v>0.1016925910308731</v>
+        <v>0.1060412164011577</v>
       </c>
       <c r="J17">
-        <v>0.1016925910308731</v>
+        <v>0.1060412164011577</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.115986666666667</v>
+        <v>1.733624333333333</v>
       </c>
       <c r="N17">
-        <v>9.34796</v>
+        <v>5.200873</v>
       </c>
       <c r="O17">
-        <v>0.03429603550991785</v>
+        <v>0.02451640527907615</v>
       </c>
       <c r="P17">
-        <v>0.03429603550991785</v>
+        <v>0.02451640527907614</v>
       </c>
       <c r="Q17">
-        <v>40.82421460484</v>
+        <v>24.21357613789933</v>
       </c>
       <c r="R17">
-        <v>367.41793144356</v>
+        <v>217.922185241094</v>
       </c>
       <c r="S17">
-        <v>0.003487652713090377</v>
+        <v>0.002599749437577</v>
       </c>
       <c r="T17">
-        <v>0.003487652713090376</v>
+        <v>0.002599749437576999</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>13.101537</v>
+        <v>13.967026</v>
       </c>
       <c r="H18">
-        <v>39.304611</v>
+        <v>41.901078</v>
       </c>
       <c r="I18">
-        <v>0.1016925910308731</v>
+        <v>0.1060412164011577</v>
       </c>
       <c r="J18">
-        <v>0.1016925910308731</v>
+        <v>0.1060412164011577</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>5.275936666666666</v>
+        <v>5.449339666666667</v>
       </c>
       <c r="N18">
-        <v>15.82781</v>
+        <v>16.348019</v>
       </c>
       <c r="O18">
-        <v>0.05806947545819973</v>
+        <v>0.07706295833680946</v>
       </c>
       <c r="P18">
-        <v>0.05806947545819973</v>
+        <v>0.07706295833680944</v>
       </c>
       <c r="Q18">
-        <v>69.12287944799</v>
+        <v>76.11106880716467</v>
       </c>
       <c r="R18">
-        <v>622.1059150319099</v>
+        <v>684.999619264482</v>
       </c>
       <c r="S18">
-        <v>0.005905235419148027</v>
+        <v>0.008171849841507014</v>
       </c>
       <c r="T18">
-        <v>0.005905235419148026</v>
+        <v>0.008171849841507014</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>13.101537</v>
+        <v>13.967026</v>
       </c>
       <c r="H19">
-        <v>39.304611</v>
+        <v>41.901078</v>
       </c>
       <c r="I19">
-        <v>0.1016925910308731</v>
+        <v>0.1060412164011577</v>
       </c>
       <c r="J19">
-        <v>0.1016925910308731</v>
+        <v>0.1060412164011577</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>41.90817766666667</v>
+        <v>35.11953966666666</v>
       </c>
       <c r="N19">
-        <v>125.724533</v>
+        <v>105.358619</v>
       </c>
       <c r="O19">
-        <v>0.4612613926713248</v>
+        <v>0.4966501975817853</v>
       </c>
       <c r="P19">
-        <v>0.4612613926713249</v>
+        <v>0.4966501975817852</v>
       </c>
       <c r="Q19">
-        <v>549.061540302407</v>
+        <v>490.5155236323645</v>
       </c>
       <c r="R19">
-        <v>4941.553862721664</v>
+        <v>4414.639712691282</v>
       </c>
       <c r="S19">
-        <v>0.046906866163256</v>
+        <v>0.05266539107744784</v>
       </c>
       <c r="T19">
-        <v>0.046906866163256</v>
+        <v>0.05266539107744783</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>15.82198533333333</v>
+        <v>9.980775999999999</v>
       </c>
       <c r="H20">
-        <v>47.465956</v>
+        <v>29.942328</v>
       </c>
       <c r="I20">
-        <v>0.1228083913970658</v>
+        <v>0.07577659178607395</v>
       </c>
       <c r="J20">
-        <v>0.1228083913970657</v>
+        <v>0.07577659178607396</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>5.326087</v>
+        <v>13.09190433333333</v>
       </c>
       <c r="N20">
-        <v>15.978261</v>
+        <v>39.275713</v>
       </c>
       <c r="O20">
-        <v>0.05862145394746399</v>
+        <v>0.1851418593633568</v>
       </c>
       <c r="P20">
-        <v>0.05862145394746399</v>
+        <v>0.1851418593633568</v>
       </c>
       <c r="Q20">
-        <v>84.26927039805733</v>
+        <v>130.6673645644293</v>
       </c>
       <c r="R20">
-        <v>758.4234335825161</v>
+        <v>1176.006281079864</v>
       </c>
       <c r="S20">
-        <v>0.007199206460645223</v>
+        <v>0.0140294190994918</v>
       </c>
       <c r="T20">
-        <v>0.007199206460645222</v>
+        <v>0.0140294190994918</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>15.82198533333333</v>
+        <v>9.980775999999999</v>
       </c>
       <c r="H21">
-        <v>47.465956</v>
+        <v>29.942328</v>
       </c>
       <c r="I21">
-        <v>0.1228083913970658</v>
+        <v>0.07577659178607395</v>
       </c>
       <c r="J21">
-        <v>0.1228083913970657</v>
+        <v>0.07577659178607396</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>1.996509</v>
       </c>
       <c r="O21">
-        <v>0.007324843448182339</v>
+        <v>0.009411347630931009</v>
       </c>
       <c r="P21">
-        <v>0.007324843448182338</v>
+        <v>0.009411347630931006</v>
       </c>
       <c r="Q21">
-        <v>10.52957870528933</v>
+        <v>6.642236370328</v>
       </c>
       <c r="R21">
-        <v>94.76620834760401</v>
+        <v>59.780127332952</v>
       </c>
       <c r="S21">
-        <v>0.0008995522411066094</v>
+        <v>0.0007131598475858932</v>
       </c>
       <c r="T21">
-        <v>0.0008995522411066091</v>
+        <v>0.0007131598475858931</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>15.82198533333333</v>
+        <v>9.980775999999999</v>
       </c>
       <c r="H22">
-        <v>47.465956</v>
+        <v>29.942328</v>
       </c>
       <c r="I22">
-        <v>0.1228083913970658</v>
+        <v>0.07577659178607395</v>
       </c>
       <c r="J22">
-        <v>0.1228083913970657</v>
+        <v>0.07577659178607396</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>34.56390266666667</v>
+        <v>14.65291633333333</v>
       </c>
       <c r="N22">
-        <v>103.691708</v>
+        <v>43.958749</v>
       </c>
       <c r="O22">
-        <v>0.3804267989649113</v>
+        <v>0.2072172318080413</v>
       </c>
       <c r="P22">
-        <v>0.3804267989649113</v>
+        <v>0.2072172318080413</v>
       </c>
       <c r="Q22">
-        <v>546.8695610547609</v>
+        <v>146.2474756697413</v>
       </c>
       <c r="R22">
-        <v>4921.826049492848</v>
+        <v>1316.227281027672</v>
       </c>
       <c r="S22">
-        <v>0.04671960322521568</v>
+        <v>0.0157022155857582</v>
       </c>
       <c r="T22">
-        <v>0.04671960322521568</v>
+        <v>0.01570221558575821</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>15.82198533333333</v>
+        <v>9.980775999999999</v>
       </c>
       <c r="H23">
-        <v>47.465956</v>
+        <v>29.942328</v>
       </c>
       <c r="I23">
-        <v>0.1228083913970658</v>
+        <v>0.07577659178607395</v>
       </c>
       <c r="J23">
-        <v>0.1228083913970657</v>
+        <v>0.07577659178607396</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>3.115986666666667</v>
+        <v>1.733624333333333</v>
       </c>
       <c r="N23">
-        <v>9.34796</v>
+        <v>5.200873</v>
       </c>
       <c r="O23">
-        <v>0.03429603550991785</v>
+        <v>0.02451640527907615</v>
       </c>
       <c r="P23">
-        <v>0.03429603550991785</v>
+        <v>0.02451640527907614</v>
       </c>
       <c r="Q23">
-        <v>49.30109533886222</v>
+        <v>17.30291613914933</v>
       </c>
       <c r="R23">
-        <v>443.70985804976</v>
+        <v>155.726245252344</v>
       </c>
       <c r="S23">
-        <v>0.004211840952269657</v>
+        <v>0.001857769634894502</v>
       </c>
       <c r="T23">
-        <v>0.004211840952269656</v>
+        <v>0.001857769634894502</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>15.82198533333333</v>
+        <v>9.980775999999999</v>
       </c>
       <c r="H24">
-        <v>47.465956</v>
+        <v>29.942328</v>
       </c>
       <c r="I24">
-        <v>0.1228083913970658</v>
+        <v>0.07577659178607395</v>
       </c>
       <c r="J24">
-        <v>0.1228083913970657</v>
+        <v>0.07577659178607396</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>5.275936666666666</v>
+        <v>5.449339666666667</v>
       </c>
       <c r="N24">
-        <v>15.82781</v>
+        <v>16.348019</v>
       </c>
       <c r="O24">
-        <v>0.05806947545819973</v>
+        <v>0.07706295833680946</v>
       </c>
       <c r="P24">
-        <v>0.05806947545819973</v>
+        <v>0.07706295833680944</v>
       </c>
       <c r="Q24">
-        <v>83.47579255959555</v>
+        <v>54.38863856091466</v>
       </c>
       <c r="R24">
-        <v>751.2821330363599</v>
+        <v>489.497747048232</v>
       </c>
       <c r="S24">
-        <v>0.007131418870292897</v>
+        <v>0.005839568335715634</v>
       </c>
       <c r="T24">
-        <v>0.007131418870292896</v>
+        <v>0.005839568335715634</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>15.82198533333333</v>
+        <v>9.980775999999999</v>
       </c>
       <c r="H25">
-        <v>47.465956</v>
+        <v>29.942328</v>
       </c>
       <c r="I25">
-        <v>0.1228083913970658</v>
+        <v>0.07577659178607395</v>
       </c>
       <c r="J25">
-        <v>0.1228083913970657</v>
+        <v>0.07577659178607396</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>41.90817766666667</v>
+        <v>35.11953966666666</v>
       </c>
       <c r="N25">
-        <v>125.724533</v>
+        <v>105.358619</v>
       </c>
       <c r="O25">
-        <v>0.4612613926713248</v>
+        <v>0.4966501975817853</v>
       </c>
       <c r="P25">
-        <v>0.4612613926713249</v>
+        <v>0.4966501975817852</v>
       </c>
       <c r="Q25">
-        <v>663.0705723887276</v>
+        <v>350.5202586361146</v>
       </c>
       <c r="R25">
-        <v>5967.635151498548</v>
+        <v>3154.682327725031</v>
       </c>
       <c r="S25">
-        <v>0.0566467696475357</v>
+        <v>0.03763445928262792</v>
       </c>
       <c r="T25">
-        <v>0.0566467696475357</v>
+        <v>0.03763445928262792</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>2.473084</v>
+        <v>2.014694666666667</v>
       </c>
       <c r="H26">
-        <v>7.419252</v>
+        <v>6.044084</v>
       </c>
       <c r="I26">
-        <v>0.01919578747111852</v>
+        <v>0.01529607470697472</v>
       </c>
       <c r="J26">
-        <v>0.01919578747111852</v>
+        <v>0.01529607470697472</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>5.326087</v>
+        <v>13.09190433333333</v>
       </c>
       <c r="N26">
-        <v>15.978261</v>
+        <v>39.275713</v>
       </c>
       <c r="O26">
-        <v>0.05862145394746399</v>
+        <v>0.1851418593633568</v>
       </c>
       <c r="P26">
-        <v>0.05862145394746399</v>
+        <v>0.1851418593633568</v>
       </c>
       <c r="Q26">
-        <v>13.171860542308</v>
+        <v>26.37618983687689</v>
       </c>
       <c r="R26">
-        <v>118.546744880772</v>
+        <v>237.385708531892</v>
       </c>
       <c r="S26">
-        <v>0.001125284971223481</v>
+        <v>0.002831943712210113</v>
       </c>
       <c r="T26">
-        <v>0.00112528497122348</v>
+        <v>0.002831943712210113</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>2.473084</v>
+        <v>2.014694666666667</v>
       </c>
       <c r="H27">
-        <v>7.419252</v>
+        <v>6.044084</v>
       </c>
       <c r="I27">
-        <v>0.01919578747111852</v>
+        <v>0.01529607470697472</v>
       </c>
       <c r="J27">
-        <v>0.01919578747111852</v>
+        <v>0.01529607470697472</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>1.996509</v>
       </c>
       <c r="O27">
-        <v>0.007324843448182339</v>
+        <v>0.009411347630931009</v>
       </c>
       <c r="P27">
-        <v>0.007324843448182338</v>
+        <v>0.009411347630931006</v>
       </c>
       <c r="Q27">
-        <v>1.645844821252</v>
+        <v>1.340785344750667</v>
       </c>
       <c r="R27">
-        <v>14.812603391268</v>
+        <v>12.067068102756</v>
       </c>
       <c r="S27">
-        <v>0.0001406061380905231</v>
+        <v>0.0001439566764560303</v>
       </c>
       <c r="T27">
-        <v>0.0001406061380905231</v>
+        <v>0.0001439566764560302</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>2.473084</v>
+        <v>2.014694666666667</v>
       </c>
       <c r="H28">
-        <v>7.419252</v>
+        <v>6.044084</v>
       </c>
       <c r="I28">
-        <v>0.01919578747111852</v>
+        <v>0.01529607470697472</v>
       </c>
       <c r="J28">
-        <v>0.01919578747111852</v>
+        <v>0.01529607470697472</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>34.56390266666667</v>
+        <v>14.65291633333333</v>
       </c>
       <c r="N28">
-        <v>103.691708</v>
+        <v>43.958749</v>
       </c>
       <c r="O28">
-        <v>0.3804267989649113</v>
+        <v>0.2072172318080413</v>
       </c>
       <c r="P28">
-        <v>0.3804267989649113</v>
+        <v>0.2072172318080413</v>
       </c>
       <c r="Q28">
-        <v>85.47943466249068</v>
+        <v>29.52115238787955</v>
       </c>
       <c r="R28">
-        <v>769.3149119624161</v>
+        <v>265.690371490916</v>
       </c>
       <c r="S28">
-        <v>0.00730259198124837</v>
+        <v>0.003169610258308299</v>
       </c>
       <c r="T28">
-        <v>0.007302591981248368</v>
+        <v>0.003169610258308299</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>2.473084</v>
+        <v>2.014694666666667</v>
       </c>
       <c r="H29">
-        <v>7.419252</v>
+        <v>6.044084</v>
       </c>
       <c r="I29">
-        <v>0.01919578747111852</v>
+        <v>0.01529607470697472</v>
       </c>
       <c r="J29">
-        <v>0.01919578747111852</v>
+        <v>0.01529607470697472</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>3.115986666666667</v>
+        <v>1.733624333333333</v>
       </c>
       <c r="N29">
-        <v>9.34796</v>
+        <v>5.200873</v>
       </c>
       <c r="O29">
-        <v>0.03429603550991785</v>
+        <v>0.02451640527907615</v>
       </c>
       <c r="P29">
-        <v>0.03429603550991785</v>
+        <v>0.02451640527907614</v>
       </c>
       <c r="Q29">
-        <v>7.706096769546667</v>
+        <v>3.492723698370222</v>
       </c>
       <c r="R29">
-        <v>69.35487092592001</v>
+        <v>31.434513285332</v>
       </c>
       <c r="S29">
-        <v>0.0006583394087503169</v>
+        <v>0.0003750047666952183</v>
       </c>
       <c r="T29">
-        <v>0.0006583394087503168</v>
+        <v>0.0003750047666952182</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>2.473084</v>
+        <v>2.014694666666667</v>
       </c>
       <c r="H30">
-        <v>7.419252</v>
+        <v>6.044084</v>
       </c>
       <c r="I30">
-        <v>0.01919578747111852</v>
+        <v>0.01529607470697472</v>
       </c>
       <c r="J30">
-        <v>0.01919578747111852</v>
+        <v>0.01529607470697472</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>5.275936666666666</v>
+        <v>5.449339666666667</v>
       </c>
       <c r="N30">
-        <v>15.82781</v>
+        <v>16.348019</v>
       </c>
       <c r="O30">
-        <v>0.05806947545819973</v>
+        <v>0.07706295833680946</v>
       </c>
       <c r="P30">
-        <v>0.05806947545819973</v>
+        <v>0.07706295833680944</v>
       </c>
       <c r="Q30">
-        <v>13.04783455534667</v>
+        <v>10.97875556328844</v>
       </c>
       <c r="R30">
-        <v>117.43051099812</v>
+        <v>98.808800069596</v>
       </c>
       <c r="S30">
-        <v>0.001114689309454935</v>
+        <v>0.001178760767860318</v>
       </c>
       <c r="T30">
-        <v>0.001114689309454935</v>
+        <v>0.001178760767860318</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>2.473084</v>
+        <v>2.014694666666667</v>
       </c>
       <c r="H31">
-        <v>7.419252</v>
+        <v>6.044084</v>
       </c>
       <c r="I31">
-        <v>0.01919578747111852</v>
+        <v>0.01529607470697472</v>
       </c>
       <c r="J31">
-        <v>0.01919578747111852</v>
+        <v>0.01529607470697472</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>41.90817766666667</v>
+        <v>35.11953966666666</v>
       </c>
       <c r="N31">
-        <v>125.724533</v>
+        <v>105.358619</v>
       </c>
       <c r="O31">
-        <v>0.4612613926713248</v>
+        <v>0.4966501975817853</v>
       </c>
       <c r="P31">
-        <v>0.4612613926713249</v>
+        <v>0.4966501975817852</v>
       </c>
       <c r="Q31">
-        <v>103.6424436565907</v>
+        <v>70.75514926222176</v>
       </c>
       <c r="R31">
-        <v>932.781992909316</v>
+        <v>636.7963433599959</v>
       </c>
       <c r="S31">
-        <v>0.008854275662350898</v>
+        <v>0.007596798525444745</v>
       </c>
       <c r="T31">
-        <v>0.008854275662350896</v>
+        <v>0.007596798525444743</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>14.448501</v>
+        <v>9.032891333333334</v>
       </c>
       <c r="H32">
-        <v>43.345503</v>
+        <v>27.098674</v>
       </c>
       <c r="I32">
-        <v>0.1121475673581016</v>
+        <v>0.06858001013287597</v>
       </c>
       <c r="J32">
-        <v>0.1121475673581016</v>
+        <v>0.06858001013287597</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>5.326087</v>
+        <v>13.09190433333333</v>
       </c>
       <c r="N32">
-        <v>15.978261</v>
+        <v>39.275713</v>
       </c>
       <c r="O32">
-        <v>0.05862145394746399</v>
+        <v>0.1851418593633568</v>
       </c>
       <c r="P32">
-        <v>0.05862145394746399</v>
+        <v>0.1851418593633568</v>
       </c>
       <c r="Q32">
-        <v>76.953973345587</v>
+        <v>118.2577491893958</v>
       </c>
       <c r="R32">
-        <v>692.5857601102831</v>
+        <v>1064.319742704562</v>
       </c>
       <c r="S32">
-        <v>0.00657425345520307</v>
+        <v>0.01269703059115851</v>
       </c>
       <c r="T32">
-        <v>0.006574253455203069</v>
+        <v>0.01269703059115851</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>14.448501</v>
+        <v>9.032891333333334</v>
       </c>
       <c r="H33">
-        <v>43.345503</v>
+        <v>27.098674</v>
       </c>
       <c r="I33">
-        <v>0.1121475673581016</v>
+        <v>0.06858001013287597</v>
       </c>
       <c r="J33">
-        <v>0.1121475673581016</v>
+        <v>0.06858001013287597</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>1.996509</v>
       </c>
       <c r="O33">
-        <v>0.007324843448182339</v>
+        <v>0.009411347630931009</v>
       </c>
       <c r="P33">
-        <v>0.007324843448182338</v>
+        <v>0.009411347630931006</v>
       </c>
       <c r="Q33">
-        <v>9.615520761003001</v>
+        <v>6.011416281007334</v>
       </c>
       <c r="R33">
-        <v>86.53968684902701</v>
+        <v>54.102746529066</v>
       </c>
       <c r="S33">
-        <v>0.0008214633739925783</v>
+        <v>0.0006454303158932668</v>
       </c>
       <c r="T33">
-        <v>0.000821463373992578</v>
+        <v>0.0006454303158932666</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>14.448501</v>
+        <v>9.032891333333334</v>
       </c>
       <c r="H34">
-        <v>43.345503</v>
+        <v>27.098674</v>
       </c>
       <c r="I34">
-        <v>0.1121475673581016</v>
+        <v>0.06858001013287597</v>
       </c>
       <c r="J34">
-        <v>0.1121475673581016</v>
+        <v>0.06858001013287597</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>34.56390266666667</v>
+        <v>14.65291633333333</v>
       </c>
       <c r="N34">
-        <v>103.691708</v>
+        <v>43.958749</v>
       </c>
       <c r="O34">
-        <v>0.3804267989649113</v>
+        <v>0.2072172318080413</v>
       </c>
       <c r="P34">
-        <v>0.3804267989649113</v>
+        <v>0.2072172318080413</v>
       </c>
       <c r="Q34">
-        <v>499.3965822432361</v>
+        <v>132.3582009554251</v>
       </c>
       <c r="R34">
-        <v>4494.569240189125</v>
+        <v>1191.223808598826</v>
       </c>
       <c r="S34">
-        <v>0.04266394006174438</v>
+        <v>0.01421095985710198</v>
       </c>
       <c r="T34">
-        <v>0.04266394006174438</v>
+        <v>0.01421095985710198</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>14.448501</v>
+        <v>9.032891333333334</v>
       </c>
       <c r="H35">
-        <v>43.345503</v>
+        <v>27.098674</v>
       </c>
       <c r="I35">
-        <v>0.1121475673581016</v>
+        <v>0.06858001013287597</v>
       </c>
       <c r="J35">
-        <v>0.1121475673581016</v>
+        <v>0.06858001013287597</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>3.115986666666667</v>
+        <v>1.733624333333333</v>
       </c>
       <c r="N35">
-        <v>9.34796</v>
+        <v>5.200873</v>
       </c>
       <c r="O35">
-        <v>0.03429603550991785</v>
+        <v>0.02451640527907615</v>
       </c>
       <c r="P35">
-        <v>0.03429603550991785</v>
+        <v>0.02451640527907614</v>
       </c>
       <c r="Q35">
-        <v>45.02133646932</v>
+        <v>15.65964021582244</v>
       </c>
       <c r="R35">
-        <v>405.19202822388</v>
+        <v>140.936761942402</v>
       </c>
       <c r="S35">
-        <v>0.003846216952464357</v>
+        <v>0.001681335322460736</v>
       </c>
       <c r="T35">
-        <v>0.003846216952464357</v>
+        <v>0.001681335322460736</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>14.448501</v>
+        <v>9.032891333333334</v>
       </c>
       <c r="H36">
-        <v>43.345503</v>
+        <v>27.098674</v>
       </c>
       <c r="I36">
-        <v>0.1121475673581016</v>
+        <v>0.06858001013287597</v>
       </c>
       <c r="J36">
-        <v>0.1121475673581016</v>
+        <v>0.06858001013287597</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>5.275936666666666</v>
+        <v>5.449339666666667</v>
       </c>
       <c r="N36">
-        <v>15.82781</v>
+        <v>16.348019</v>
       </c>
       <c r="O36">
-        <v>0.05806947545819973</v>
+        <v>0.07706295833680946</v>
       </c>
       <c r="P36">
-        <v>0.05806947545819973</v>
+        <v>0.07706295833680944</v>
       </c>
       <c r="Q36">
-        <v>76.22937620427</v>
+        <v>49.22329304742289</v>
       </c>
       <c r="R36">
-        <v>686.06438583843</v>
+        <v>443.009637426806</v>
       </c>
       <c r="S36">
-        <v>0.006512350410398085</v>
+        <v>0.005284978463607791</v>
       </c>
       <c r="T36">
-        <v>0.006512350410398084</v>
+        <v>0.00528497846360779</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>14.448501</v>
+        <v>9.032891333333334</v>
       </c>
       <c r="H37">
-        <v>43.345503</v>
+        <v>27.098674</v>
       </c>
       <c r="I37">
-        <v>0.1121475673581016</v>
+        <v>0.06858001013287597</v>
       </c>
       <c r="J37">
-        <v>0.1121475673581016</v>
+        <v>0.06858001013287597</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>41.90817766666667</v>
+        <v>35.11953966666666</v>
       </c>
       <c r="N37">
-        <v>125.724533</v>
+        <v>105.358619</v>
       </c>
       <c r="O37">
-        <v>0.4612613926713248</v>
+        <v>0.4966501975817853</v>
       </c>
       <c r="P37">
-        <v>0.4612613926713249</v>
+        <v>0.4966501975817852</v>
       </c>
       <c r="Q37">
-        <v>605.510346925011</v>
+        <v>317.2309854856895</v>
       </c>
       <c r="R37">
-        <v>5449.593122325099</v>
+        <v>2855.078869371206</v>
       </c>
       <c r="S37">
-        <v>0.05172934310429917</v>
+        <v>0.03406027558265369</v>
       </c>
       <c r="T37">
-        <v>0.05172934310429917</v>
+        <v>0.03406027558265368</v>
       </c>
     </row>
   </sheetData>
